--- a/WTW-Generic.xlsx
+++ b/WTW-Generic.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhamm\OneDrive - Microsoft\Tools\WTW\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="422" documentId="8_{FCD58462-7360-438B-8827-CC9064A9CA0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CFC036DB-8BF0-4814-B3E0-2525F890A5A9}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA6A412-7ED1-4802-840C-123E340C998A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-18180" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Categories" sheetId="1" r:id="rId1"/>
+    <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Tools" sheetId="2" r:id="rId2"/>
     <sheet name="Questions" sheetId="4" r:id="rId3"/>
     <sheet name="ToolCapabilities" sheetId="5" r:id="rId4"/>
     <sheet name="ToolCapabilitiesPivot" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="CategoryName">Categories!$A:$A</definedName>
+    <definedName name="CategoryName">Scenarios!$A:$A</definedName>
     <definedName name="ToolName">Tools!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,19 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="183">
-  <si>
-    <t>CategoryID</t>
-  </si>
-  <si>
-    <t>CategoryName</t>
-  </si>
-  <si>
-    <t>CategoryImage</t>
-  </si>
-  <si>
-    <t>CategoryShortName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="180">
   <si>
     <t>Collect</t>
   </si>
@@ -164,9 +149,6 @@
     <t>ToolLinkText</t>
   </si>
   <si>
-    <t>ToolCategories</t>
-  </si>
-  <si>
     <t>AzureDevOps</t>
   </si>
   <si>
@@ -284,9 +266,6 @@
     <t>QuestionID</t>
   </si>
   <si>
-    <t>QuestionCategory</t>
-  </si>
-  <si>
     <t>Question</t>
   </si>
   <si>
@@ -500,9 +479,6 @@
     <t>"Communicate out to Employees","Personal Productivity"</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Will any files be Highly Confidential?</t>
   </si>
   <si>
@@ -584,13 +560,25 @@
     <t>"Communicate out to Employees","Chat"</t>
   </si>
   <si>
-    <t>Collaborate with Colleagues2</t>
-  </si>
-  <si>
-    <t>Share a Video2</t>
-  </si>
-  <si>
-    <t>Chat2</t>
+    <t>ScenarioID</t>
+  </si>
+  <si>
+    <t>ScenarioName</t>
+  </si>
+  <si>
+    <t>ScenarioImage</t>
+  </si>
+  <si>
+    <t>ScenarioShortName</t>
+  </si>
+  <si>
+    <t>QuestionScenario</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>ToolScenarios</t>
   </si>
 </sst>
 </file>
@@ -722,7 +710,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="29">
     <dxf>
       <alignment textRotation="76"/>
     </dxf>
@@ -731,73 +719,6 @@
     </dxf>
     <dxf>
       <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="76"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="76"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -867,6 +788,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -902,7 +827,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="James Hammonds" refreshedDate="43735.362541087961" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="47" xr:uid="{6B61BD5D-09A1-4A13-91F7-9DE133C30CD4}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Author" refreshedDate="43869.430561458335" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="47" xr:uid="{6B61BD5D-09A1-4A13-91F7-9DE133C30CD4}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table5"/>
   </cacheSource>
@@ -984,8 +909,8 @@
     <cacheField name="Collect" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Category" numFmtId="0">
-      <sharedItems count="14">
+    <cacheField name="Scenario" numFmtId="0">
+      <sharedItems count="9">
         <s v="Collaborate with Colleagues"/>
         <s v="Manage Tasks"/>
         <s v="Share a Video"/>
@@ -995,11 +920,6 @@
         <s v="Automate a Workflow"/>
         <s v="Host a Meeting"/>
         <s v="Personal Productivity"/>
-        <s v="Chat Online" u="1"/>
-        <s v="Collaborate with a Colleague" u="1"/>
-        <e v="#N/A" u="1"/>
-        <s v="Report on &amp; Visualize Data" u="1"/>
-        <s v="Share a Video with Employees" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1470,21 +1390,16 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="14">
+      <items count="9">
         <item x="6"/>
-        <item n="Chat" m="1" x="9"/>
-        <item n="Collaborate with Colleagues" m="1" x="10"/>
+        <item x="4"/>
+        <item x="0"/>
         <item x="3"/>
         <item x="7"/>
         <item x="1"/>
         <item x="8"/>
-        <item m="1" x="12"/>
-        <item n="Share a Video" m="1" x="13"/>
-        <item m="1" x="11"/>
         <item x="5"/>
-        <item n="Collaborate with Colleagues2" x="0"/>
-        <item n="Share a Video2" x="2"/>
-        <item n="Chat2" x="4"/>
+        <item x="2"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -1557,6 +1472,29 @@
       <x v="25"/>
     </i>
     <i>
+      <x v="1"/>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i>
       <x v="3"/>
       <x v="4"/>
     </i>
@@ -1606,27 +1544,14 @@
       <x v="29"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="7"/>
       <x v="9"/>
     </i>
     <i r="1">
       <x v="36"/>
     </i>
     <i>
-      <x v="11"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="12"/>
+      <x v="8"/>
       <x v="2"/>
     </i>
     <i r="1">
@@ -1641,164 +1566,23 @@
     <i r="1">
       <x v="37"/>
     </i>
-    <i>
-      <x v="13"/>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="38"/>
-    </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of ToolCapabilityWeight" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="12">
-    <format dxfId="24">
+  <formats count="3">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="2">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="3">
-            <x v="11"/>
-            <x v="21"/>
-            <x v="25"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="20">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="3">
-            <x v="8"/>
-            <x v="20"/>
-            <x v="38"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="19">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="4">
-            <x v="0"/>
-            <x v="7"/>
-            <x v="10"/>
-            <x v="32"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="18">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="3">
-            <x v="4"/>
-            <x v="6"/>
-            <x v="30"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="17">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="6">
-            <x v="13"/>
-            <x v="14"/>
-            <x v="15"/>
-            <x v="17"/>
-            <x v="23"/>
-            <x v="35"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="16">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="2">
-            <x v="1"/>
-            <x v="5"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="15">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="4">
-            <x v="18"/>
-            <x v="26"/>
-            <x v="27"/>
-            <x v="29"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="2">
-            <x v="9"/>
-            <x v="36"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="13">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="5">
-            <x v="2"/>
-            <x v="16"/>
-            <x v="28"/>
-            <x v="34"/>
-            <x v="37"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -1814,17 +1598,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:E10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CategoryID" dataDxfId="47">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ScenarioID" dataDxfId="26">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CategoryName" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{A0D21220-B60A-439A-BD4B-D42D31FFF4A9}" name="CategoryImage" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{0AC57360-87B7-4DD9-95F8-67397F44A079}" name="CategoryShortName" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Collect" dataDxfId="12">
-      <calculatedColumnFormula>"{"&amp;Table1[[#Headers],[CategoryID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryID]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryImage]]&amp;":"&amp;Table1[[#This Row],[CategoryImage]]&amp;","&amp;Table1[[#Headers],[CategoryName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryName]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryShortName]]&amp;""""&amp;"},"</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ScenarioName" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{A0D21220-B60A-439A-BD4B-D42D31FFF4A9}" name="ScenarioImage" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{0AC57360-87B7-4DD9-95F8-67397F44A079}" name="ScenarioShortName" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Collect" dataDxfId="22">
+      <calculatedColumnFormula>"{"&amp;Table1[[#Headers],[ScenarioID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioID]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioImage]]&amp;":"&amp;Table1[[#This Row],[ScenarioImage]]&amp;","&amp;Table1[[#Headers],[ScenarioName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioName]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioShortName]]&amp;""""&amp;"},"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1832,24 +1616,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:G19" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:G19" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:G19" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
     <sortCondition ref="A1:A19"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ToolName" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="ToolDescription" dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ToolName" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="ToolDescription" dataDxfId="18">
       <calculatedColumnFormula>Table2[[#This Row],[ToolName]]&amp;" is amazing. You should totally use it."</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="ToolImage" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="ToolLink" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="ToolLinkText" dataDxfId="37">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="ToolImage" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="ToolLink" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="ToolLinkText" dataDxfId="15">
       <calculatedColumnFormula>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="ToolCategories" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Collect" dataDxfId="35">
-      <calculatedColumnFormula>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G3&lt;&gt;"",",","")</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="ToolScenarios" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Collect" dataDxfId="13">
+      <calculatedColumnFormula>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G3&lt;&gt;"",",","")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1857,21 +1641,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table4" displayName="Table4" ref="A1:F33" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table4" displayName="Table4" ref="A1:F33" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:F33" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
     <sortCondition ref="B1:B31"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="QuestionID" dataDxfId="32">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="QuestionID" dataDxfId="10">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="QuestionCategory" dataDxfId="31"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Question" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="QuestionCapability" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="QuestionToolTip" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Collect" dataDxfId="27">
-      <calculatedColumnFormula>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F3&lt;&gt;"",",","")</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="QuestionScenario" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Question" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="QuestionCapability" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="QuestionToolTip" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Collect" dataDxfId="5">
+      <calculatedColumnFormula>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F3&lt;&gt;"",",","")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1889,10 +1673,10 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ToolCapability"/>
     <tableColumn id="4" xr3:uid="{70A68687-1B0C-4C43-A920-17CB9F401274}" name="ToolCapabilityWeight"/>
     <tableColumn id="5" xr3:uid="{B4F23A2F-6DBB-43F3-A60D-11C4B2CC61C3}" name="ToolCapabilityTooltip"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Collect" dataDxfId="26">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Collect" dataDxfId="4">
       <calculatedColumnFormula>"{"&amp;Table5[[#Headers],[CapabilityToolName]]&amp;":"&amp;""""&amp;Table5[[#This Row],[CapabilityToolName]]&amp;""""&amp;","&amp;Table5[[#Headers],[ToolCapability]]&amp;":"&amp;""""&amp;Table5[[#This Row],[ToolCapability]]&amp;""""&amp;","&amp;Table5[[#Headers],[ToolCapabilityWeight]]&amp;":"&amp;Table5[[#This Row],[ToolCapabilityWeight]]&amp;","&amp;Table5[[#Headers],[ToolCapabilityTooltip]]&amp;":"&amp;""""&amp;Table5[[#This Row],[ToolCapabilityTooltip]]&amp;""""&amp;"}"&amp;IF(E3&lt;&gt;"",",","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E8E6B28D-3027-4DAB-BB5C-E2AD1F2F62E1}" name="Category" dataDxfId="25">
+    <tableColumn id="6" xr3:uid="{E8E6B28D-3027-4DAB-BB5C-E2AD1F2F62E1}" name="Scenario" dataDxfId="3">
       <calculatedColumnFormula>OFFSET(Table4[[#Headers],[QuestionID]],MATCH(Table5[[#This Row],[ToolCapability]],Table4[QuestionCapability],0),1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2203,7 +1987,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2216,19 +2000,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2237,17 +2021,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>"{"&amp;Table1[[#Headers],[CategoryID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryID]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryImage]]&amp;":"&amp;Table1[[#This Row],[CategoryImage]]&amp;","&amp;Table1[[#Headers],[CategoryName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryName]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryShortName]]&amp;""""&amp;"},"</f>
-        <v>{CategoryID:"1",CategoryImage:Collaborate,CategoryName:"Collaborate with Colleagues",CategoryShortName:"Collaborate"},</v>
+        <f>"{"&amp;Table1[[#Headers],[ScenarioID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioID]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioImage]]&amp;":"&amp;Table1[[#This Row],[ScenarioImage]]&amp;","&amp;Table1[[#Headers],[ScenarioName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioName]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioShortName]]&amp;""""&amp;"},"</f>
+        <v>{ScenarioID:"1",ScenarioImage:Collaborate,ScenarioName:"Collaborate with Colleagues",ScenarioShortName:"Collaborate"},</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -2256,17 +2040,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>"{"&amp;Table1[[#Headers],[CategoryID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryID]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryImage]]&amp;":"&amp;Table1[[#This Row],[CategoryImage]]&amp;","&amp;Table1[[#Headers],[CategoryName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryName]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryShortName]]&amp;""""&amp;"},"</f>
-        <v>{CategoryID:"2",CategoryImage:EmployeeCommunications,CategoryName:"Communicate out to Employees",CategoryShortName:"Employee Communications"},</v>
+        <f>"{"&amp;Table1[[#Headers],[ScenarioID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioID]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioImage]]&amp;":"&amp;Table1[[#This Row],[ScenarioImage]]&amp;","&amp;Table1[[#Headers],[ScenarioName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioName]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioShortName]]&amp;""""&amp;"},"</f>
+        <v>{ScenarioID:"2",ScenarioImage:EmployeeCommunications,ScenarioName:"Communicate out to Employees",ScenarioShortName:"Employee Communications"},</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -2275,17 +2059,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>"{"&amp;Table1[[#Headers],[CategoryID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryID]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryImage]]&amp;":"&amp;Table1[[#This Row],[CategoryImage]]&amp;","&amp;Table1[[#Headers],[CategoryName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryName]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryShortName]]&amp;""""&amp;"},"</f>
-        <v>{CategoryID:"3",CategoryImage:Meetings,CategoryName:"Host a Meeting",CategoryShortName:"Meetings"},</v>
+        <f>"{"&amp;Table1[[#Headers],[ScenarioID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioID]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioImage]]&amp;":"&amp;Table1[[#This Row],[ScenarioImage]]&amp;","&amp;Table1[[#Headers],[ScenarioName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioName]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioShortName]]&amp;""""&amp;"},"</f>
+        <v>{ScenarioID:"3",ScenarioImage:Meetings,ScenarioName:"Host a Meeting",ScenarioShortName:"Meetings"},</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -2294,17 +2078,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>"{"&amp;Table1[[#Headers],[CategoryID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryID]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryImage]]&amp;":"&amp;Table1[[#This Row],[CategoryImage]]&amp;","&amp;Table1[[#Headers],[CategoryName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryName]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryShortName]]&amp;""""&amp;"},"</f>
-        <v>{CategoryID:"4",CategoryImage:Chat,CategoryName:"Chat",CategoryShortName:"Chat"},</v>
+        <f>"{"&amp;Table1[[#Headers],[ScenarioID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioID]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioImage]]&amp;":"&amp;Table1[[#This Row],[ScenarioImage]]&amp;","&amp;Table1[[#Headers],[ScenarioName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioName]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioShortName]]&amp;""""&amp;"},"</f>
+        <v>{ScenarioID:"4",ScenarioImage:Chat,ScenarioName:"Chat",ScenarioShortName:"Chat"},</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2313,17 +2097,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>"{"&amp;Table1[[#Headers],[CategoryID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryID]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryImage]]&amp;":"&amp;Table1[[#This Row],[CategoryImage]]&amp;","&amp;Table1[[#Headers],[CategoryName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryName]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryShortName]]&amp;""""&amp;"},"</f>
-        <v>{CategoryID:"5",CategoryImage:PersonalProductivity,CategoryName:"Personal Productivity",CategoryShortName:"Personal Productivity"},</v>
+        <f>"{"&amp;Table1[[#Headers],[ScenarioID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioID]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioImage]]&amp;":"&amp;Table1[[#This Row],[ScenarioImage]]&amp;","&amp;Table1[[#Headers],[ScenarioName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioName]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioShortName]]&amp;""""&amp;"},"</f>
+        <v>{ScenarioID:"5",ScenarioImage:PersonalProductivity,ScenarioName:"Personal Productivity",ScenarioShortName:"Personal Productivity"},</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -2332,17 +2116,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>"{"&amp;Table1[[#Headers],[CategoryID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryID]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryImage]]&amp;":"&amp;Table1[[#This Row],[CategoryImage]]&amp;","&amp;Table1[[#Headers],[CategoryName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryName]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryShortName]]&amp;""""&amp;"},"</f>
-        <v>{CategoryID:"6",CategoryImage:ReportingDataVisualization,CategoryName:"Reports and Data Visualization",CategoryShortName:"Reports and Data Visualization"},</v>
+        <f>"{"&amp;Table1[[#Headers],[ScenarioID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioID]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioImage]]&amp;":"&amp;Table1[[#This Row],[ScenarioImage]]&amp;","&amp;Table1[[#Headers],[ScenarioName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioName]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioShortName]]&amp;""""&amp;"},"</f>
+        <v>{ScenarioID:"6",ScenarioImage:ReportingDataVisualization,ScenarioName:"Reports and Data Visualization",ScenarioShortName:"Reports and Data Visualization"},</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -2351,17 +2135,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>"{"&amp;Table1[[#Headers],[CategoryID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryID]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryImage]]&amp;":"&amp;Table1[[#This Row],[CategoryImage]]&amp;","&amp;Table1[[#Headers],[CategoryName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryName]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryShortName]]&amp;""""&amp;"},"</f>
-        <v>{CategoryID:"7",CategoryImage:TaskManagement,CategoryName:"Manage Tasks",CategoryShortName:"Task Management"},</v>
+        <f>"{"&amp;Table1[[#Headers],[ScenarioID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioID]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioImage]]&amp;":"&amp;Table1[[#This Row],[ScenarioImage]]&amp;","&amp;Table1[[#Headers],[ScenarioName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioName]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioShortName]]&amp;""""&amp;"},"</f>
+        <v>{ScenarioID:"7",ScenarioImage:TaskManagement,ScenarioName:"Manage Tasks",ScenarioShortName:"Task Management"},</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -2370,17 +2154,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>"{"&amp;Table1[[#Headers],[CategoryID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryID]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryImage]]&amp;":"&amp;Table1[[#This Row],[CategoryImage]]&amp;","&amp;Table1[[#Headers],[CategoryName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryName]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryShortName]]&amp;""""&amp;"},"</f>
-        <v>{CategoryID:"8",CategoryImage:VideoSharing,CategoryName:"Share a Video",CategoryShortName:"Video Sharing"},</v>
+        <f>"{"&amp;Table1[[#Headers],[ScenarioID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioID]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioImage]]&amp;":"&amp;Table1[[#This Row],[ScenarioImage]]&amp;","&amp;Table1[[#Headers],[ScenarioName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioName]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioShortName]]&amp;""""&amp;"},"</f>
+        <v>{ScenarioID:"8",ScenarioImage:VideoSharing,ScenarioName:"Share a Video",ScenarioShortName:"Video Sharing"},</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -2389,17 +2173,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>"{"&amp;Table1[[#Headers],[CategoryID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryID]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryImage]]&amp;":"&amp;Table1[[#This Row],[CategoryImage]]&amp;","&amp;Table1[[#Headers],[CategoryName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryName]]&amp;""""&amp;","&amp;Table1[[#Headers],[CategoryShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[CategoryShortName]]&amp;""""&amp;"},"</f>
-        <v>{CategoryID:"9",CategoryImage:WorkflowAutomation,CategoryName:"Automate a Workflow",CategoryShortName:"Workflow Automation"},</v>
+        <f>"{"&amp;Table1[[#Headers],[ScenarioID]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioID]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioImage]]&amp;":"&amp;Table1[[#This Row],[ScenarioImage]]&amp;","&amp;Table1[[#Headers],[ScenarioName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioName]]&amp;""""&amp;","&amp;Table1[[#Headers],[ScenarioShortName]]&amp;":"&amp;""""&amp;Table1[[#This Row],[ScenarioShortName]]&amp;""""&amp;"},"</f>
+        <v>{ScenarioID:"9",ScenarioImage:WorkflowAutomation,ScenarioName:"Automate a Workflow",ScenarioShortName:"Workflow Automation"},</v>
       </c>
     </row>
   </sheetData>
@@ -2416,10 +2200,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2436,475 +2220,475 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="str">
         <f>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</f>
         <v>Learn more about Azure DevOps</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G3&lt;&gt;"",",","")</f>
-        <v>{ToolName:"Azure DevOps",ToolDescription:"Deliver value to your users faster using proven agile tools to plan, track, and discuss work across your teams.",ToolImage:AzureDevOps,ToolLink:"https://azure.microsoft.com/en-us/services/devops/",ToolLinkText:"Learn more about Azure DevOps",ToolCategories:["Manage Tasks"]},</v>
+        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G3&lt;&gt;"",",","")</f>
+        <v>{ToolName:"Azure DevOps",ToolDescription:"Deliver value to your users faster using proven agile tools to plan, track, and discuss work across your teams.",ToolImage:AzureDevOps,ToolLink:"https://azure.microsoft.com/en-us/services/devops/",ToolLinkText:"Learn more about Azure DevOps",ToolScenarios:["Manage Tasks"]},</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</f>
         <v>Learn more about Delve</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G4&lt;&gt;"",",","")</f>
-        <v>{ToolName:"Delve",ToolDescription:"Get personal insights and relevant information based on who you work with and the content you work on.",ToolImage:Delve,ToolLink:"https://support.office.com/article/0e4751f5-3006-402f-b55a-bb079cfb1ff1?wt.mc_id=AID573689_QSG_174541",ToolLinkText:"Learn more about Delve",ToolCategories:["Personal Productivity"]},</v>
+        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G4&lt;&gt;"",",","")</f>
+        <v>{ToolName:"Delve",ToolDescription:"Get personal insights and relevant information based on who you work with and the content you work on.",ToolImage:Delve,ToolLink:"https://support.office.com/article/0e4751f5-3006-402f-b55a-bb079cfb1ff1?wt.mc_id=AID573689_QSG_174541",ToolLinkText:"Learn more about Delve",ToolScenarios:["Personal Productivity"]},</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E4" s="2" t="str">
         <f>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</f>
         <v>Learn more about Flow</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G5&lt;&gt;"",",","")</f>
-        <v>{ToolName:"Flow",ToolDescription:"Create workflows between your apps, files, and data to automate time-consuming tasks so you can focus on whats next.'",ToolImage:Flow,ToolLink:"https://flow.microsoft.com/guided-learning/learning-introducing-flow/",ToolLinkText:"Learn more about Flow",ToolCategories:["Automate a Workflow"]},</v>
+        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G5&lt;&gt;"",",","")</f>
+        <v>{ToolName:"Flow",ToolDescription:"Create workflows between your apps, files, and data to automate time-consuming tasks so you can focus on whats next.'",ToolImage:Flow,ToolLink:"https://flow.microsoft.com/guided-learning/learning-introducing-flow/",ToolLinkText:"Learn more about Flow",ToolScenarios:["Automate a Workflow"]},</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</f>
         <v>Learn more about Forms</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G6&lt;&gt;"",",","")</f>
-        <v>{ToolName:"Forms",ToolDescription:"Create surveys, quizzes, and polls in minutes. Send them to anyone and easily see results in real time.",ToolImage:Forms,ToolLink:"https://support.office.com/article/6b391205-523c-45d2-b53a-fc10b22017c8",ToolLinkText:"Learn more about Forms",ToolCategories:["Reports and Data Visualization"]},</v>
+        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G6&lt;&gt;"",",","")</f>
+        <v>{ToolName:"Forms",ToolDescription:"Create surveys, quizzes, and polls in minutes. Send them to anyone and easily see results in real time.",ToolImage:Forms,ToolLink:"https://support.office.com/article/6b391205-523c-45d2-b53a-fc10b22017c8",ToolLinkText:"Learn more about Forms",ToolScenarios:["Reports and Data Visualization"]},</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E6" s="2" t="str">
         <f>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</f>
         <v>Learn more about MyAnalytics</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G7&lt;&gt;"",",","")</f>
-        <v>{ToolName:"MyAnalytics",ToolDescription:"Create better work habits. MyAnalytics shows you how you spend your time at work with insights into your meetings, email, and focus hours.",ToolImage:Delve,ToolLink:"https://support.office.com/article/Microsoft-MyAnalytics-personal-dashboard-c52d090c-a4fc-478c-b027-757ed86d5993",ToolLinkText:"Learn more about MyAnalytics",ToolCategories:["Personal Productivity"]},</v>
+        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G7&lt;&gt;"",",","")</f>
+        <v>{ToolName:"MyAnalytics",ToolDescription:"Create better work habits. MyAnalytics shows you how you spend your time at work with insights into your meetings, email, and focus hours.",ToolImage:Delve,ToolLink:"https://support.office.com/article/Microsoft-MyAnalytics-personal-dashboard-c52d090c-a4fc-478c-b027-757ed86d5993",ToolLinkText:"Learn more about MyAnalytics",ToolScenarios:["Personal Productivity"]},</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</f>
         <v>Learn more about OneDrive</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G8&lt;&gt;"",",","")</f>
-        <v>{ToolName:"OneDrive",ToolDescription:"Store your files in one place, share them with others, and get to them from any device connected to the Internet.",ToolImage:OneDrive,ToolLink:"https://support.office.com/article/a1397e56-61ec-4ed2-9dac-727bf8ac3357?wt.mc_id=AID573689_QSG_174540",ToolLinkText:"Learn more about OneDrive",ToolCategories:["Collaborate with Colleagues","Personal Productivity"]},</v>
+        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G8&lt;&gt;"",",","")</f>
+        <v>{ToolName:"OneDrive",ToolDescription:"Store your files in one place, share them with others, and get to them from any device connected to the Internet.",ToolImage:OneDrive,ToolLink:"https://support.office.com/article/a1397e56-61ec-4ed2-9dac-727bf8ac3357?wt.mc_id=AID573689_QSG_174540",ToolLinkText:"Learn more about OneDrive",ToolScenarios:["Collaborate with Colleagues","Personal Productivity"]},</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2" t="str">
         <f>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</f>
         <v>Learn more about OneNote</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G9&lt;&gt;"",",","")</f>
-        <v>{ToolName:"OneNote",ToolDescription:"Capture notes by typing, drawing, or writing. OneNote lets you organize and reuse your notes across all of your devices.",ToolImage:OneNote,ToolLink:"https://support.office.com/OneNote",ToolLinkText:"Learn more about OneNote",ToolCategories:["Collaborate with Colleagues","Personal Productivity"]},</v>
+        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G9&lt;&gt;"",",","")</f>
+        <v>{ToolName:"OneNote",ToolDescription:"Capture notes by typing, drawing, or writing. OneNote lets you organize and reuse your notes across all of your devices.",ToolImage:OneNote,ToolLink:"https://support.office.com/OneNote",ToolLinkText:"Learn more about OneNote",ToolScenarios:["Collaborate with Colleagues","Personal Productivity"]},</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2" t="str">
         <f>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</f>
         <v>Learn more about Outlook</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G10&lt;&gt;"",",","")</f>
-        <v>{ToolName:"Outlook",ToolDescription:"Use business-class email through a rich and familiar Outlook experience you can access from your desktop or a web browser.",ToolImage:Outlook,ToolLink:"https://support.office.com/article/676b32bc-b486-468d-b1f2-883569298b58?wt.mc_id=AID573689_QSG_174547",ToolLinkText:"Learn more about Outlook",ToolCategories:["Communicate out to Employees","Personal Productivity"]},</v>
+        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G10&lt;&gt;"",",","")</f>
+        <v>{ToolName:"Outlook",ToolDescription:"Use business-class email through a rich and familiar Outlook experience you can access from your desktop or a web browser.",ToolImage:Outlook,ToolLink:"https://support.office.com/article/676b32bc-b486-468d-b1f2-883569298b58?wt.mc_id=AID573689_QSG_174547",ToolLinkText:"Learn more about Outlook",ToolScenarios:["Communicate out to Employees","Personal Productivity"]},</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2" t="str">
         <f>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</f>
         <v>Learn more about Planner</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G11&lt;&gt;"",",","")</f>
-        <v>{ToolName:"Planner",ToolDescription:"Create new plans, organize and assign tasks, share files, chat about what youre working on  and get progress updates with Planner.",ToolImage:Planner,ToolLink:"https://support.office.com/article/fe43c972-5a95-4071-86d4-423a64a3b21e?wt.mc_id=AID573689_QSG_174542",ToolLinkText:"Learn more about Planner",ToolCategories:["Manage Tasks"]},</v>
+        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G11&lt;&gt;"",",","")</f>
+        <v>{ToolName:"Planner",ToolDescription:"Create new plans, organize and assign tasks, share files, chat about what youre working on  and get progress updates with Planner.",ToolImage:Planner,ToolLink:"https://support.office.com/article/fe43c972-5a95-4071-86d4-423a64a3b21e?wt.mc_id=AID573689_QSG_174542",ToolLinkText:"Learn more about Planner",ToolScenarios:["Manage Tasks"]},</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</f>
         <v>Learn more about Power BI</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G12&lt;&gt;"",",","")</f>
-        <v>{ToolName:"Power BI",ToolDescription:"Create actionable, dynamic, and engaging data dashboards to share with your company or school.",ToolImage:PowerBI,ToolLink:"https://powerbi.microsoft.com/guided-learning/powerbi-learning-0-1-intro-using-power-bi/",ToolLinkText:"Learn more about Power BI",ToolCategories:["Reports and Data Visualization"]},</v>
+        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G12&lt;&gt;"",",","")</f>
+        <v>{ToolName:"Power BI",ToolDescription:"Create actionable, dynamic, and engaging data dashboards to share with your company or school.",ToolImage:PowerBI,ToolLink:"https://powerbi.microsoft.com/guided-learning/powerbi-learning-0-1-intro-using-power-bi/",ToolLinkText:"Learn more about Power BI",ToolScenarios:["Reports and Data Visualization"]},</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</f>
         <v>Learn more about PowerApps</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G13&lt;&gt;"",",","")</f>
-        <v>{ToolName:"PowerApps",ToolDescription:"Build mobile and web apps with the data your organization already uses.",ToolImage:PowerApps,ToolLink:"https://powerapps.microsoft.com/guided-learning/learning-introducing-powerapps/",ToolLinkText:"Learn more about PowerApps",ToolCategories:["Automate a Workflow"]},</v>
+        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G13&lt;&gt;"",",","")</f>
+        <v>{ToolName:"PowerApps",ToolDescription:"Build mobile and web apps with the data your organization already uses.",ToolImage:PowerApps,ToolLink:"https://powerapps.microsoft.com/guided-learning/learning-introducing-powerapps/",ToolLinkText:"Learn more about PowerApps",ToolScenarios:["Automate a Workflow"]},</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</f>
         <v>Learn more about SharePoint</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G13" s="2" t="str">
-        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G14&lt;&gt;"",",","")</f>
-        <v>{ToolName:"SharePoint",ToolDescription:"Share and manage content, knowledge, and applications to empower teamwork, quickly find information, and seamlessly collaborate across the organization.",ToolImage:SharePoint,ToolLink:"https://support.office.com/article/324a89ec-e77b-4475-b64a-13a0c14c45ec?wt.mc_id=AID573689_QSG_174543",ToolLinkText:"Learn more about SharePoint",ToolCategories:["Collaborate with Colleagues"]},</v>
+        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G14&lt;&gt;"",",","")</f>
+        <v>{ToolName:"SharePoint",ToolDescription:"Share and manage content, knowledge, and applications to empower teamwork, quickly find information, and seamlessly collaborate across the organization.",ToolImage:SharePoint,ToolLink:"https://support.office.com/article/324a89ec-e77b-4475-b64a-13a0c14c45ec?wt.mc_id=AID573689_QSG_174543",ToolLinkText:"Learn more about SharePoint",ToolScenarios:["Collaborate with Colleagues"]},</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</f>
         <v>Learn more about Stream</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G14" s="2" t="str">
-        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G15&lt;&gt;"",",","")</f>
-        <v>{ToolName:"Stream",ToolDescription:"Share videos of classes, meetings, presentations, training sessions, or other videos with people in your company or school.",ToolImage:Stream,ToolLink:"https://stream.microsoft.com/documentation/stream-portal-get-started/",ToolLinkText:"Learn more about Stream",ToolCategories:["Share a Video","Host a Meeting"]},</v>
+        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G15&lt;&gt;"",",","")</f>
+        <v>{ToolName:"Stream",ToolDescription:"Share videos of classes, meetings, presentations, training sessions, or other videos with people in your company or school.",ToolImage:Stream,ToolLink:"https://stream.microsoft.com/documentation/stream-portal-get-started/",ToolLinkText:"Learn more about Stream",ToolScenarios:["Share a Video","Host a Meeting"]},</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E15" s="2" t="str">
         <f>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</f>
         <v>Learn more about Sway</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G15" s="2" t="str">
-        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G16&lt;&gt;"",",","")</f>
-        <v>{ToolName:"Sway",ToolDescription:"Create and share engaging interactive reports, presentations, personal stories, and more. Sway does the design work for you.",ToolImage:Sway,ToolLink:"https://support.office.com/article/b60d6dc4-d2bc-4740-ab1d-e2c4071dca03?wt.mc_id=AID573689_QSG_174550",ToolLinkText:"Learn more about Sway",ToolCategories:["Communicate out to Employees"]},</v>
+        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G16&lt;&gt;"",",","")</f>
+        <v>{ToolName:"Sway",ToolDescription:"Create and share engaging interactive reports, presentations, personal stories, and more. Sway does the design work for you.",ToolImage:Sway,ToolLink:"https://support.office.com/article/b60d6dc4-d2bc-4740-ab1d-e2c4071dca03?wt.mc_id=AID573689_QSG_174550",ToolLinkText:"Learn more about Sway",ToolScenarios:["Communicate out to Employees"]},</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</f>
         <v>Learn more about Teams</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G17&lt;&gt;"",",","")</f>
-        <v>{ToolName:"Teams",ToolDescription:"The customizable chat-based team workspace in Office 365.",ToolImage:Teams,ToolLink:"https://support.office.com/article/422bf3aa-9ae8-46f1-83a2-e65720e1a34d?wt.mc_id=AID573689_QSG_174525",ToolLinkText:"Learn more about Teams",ToolCategories:["Collaborate with Colleagues","Host a Meeting","Chat"]},</v>
+        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G17&lt;&gt;"",",","")</f>
+        <v>{ToolName:"Teams",ToolDescription:"The customizable chat-based team workspace in Office 365.",ToolImage:Teams,ToolLink:"https://support.office.com/article/422bf3aa-9ae8-46f1-83a2-e65720e1a34d?wt.mc_id=AID573689_QSG_174525",ToolLinkText:"Learn more about Teams",ToolScenarios:["Collaborate with Colleagues","Host a Meeting","Chat"]},</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E17" s="2" t="str">
         <f>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</f>
         <v>Learn more about To-Do</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G18&lt;&gt;"",",","")</f>
-        <v>{ToolName:"To-Do",ToolDescription:"Manage, prioritize, and complete the most important things you need to achieve every day.",ToolImage:ToDo,ToolLink:"https://support.office.com/article/Microsoft-To-Do-Quick-Start-4e5aeac6-8649-4813-aae5-2c2ddea2f292",ToolLinkText:"Learn more about To-Do",ToolCategories:["Manage Tasks","Personal Productivity"]},</v>
+        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G18&lt;&gt;"",",","")</f>
+        <v>{ToolName:"To-Do",ToolDescription:"Manage, prioritize, and complete the most important things you need to achieve every day.",ToolImage:ToDo,ToolLink:"https://support.office.com/article/Microsoft-To-Do-Quick-Start-4e5aeac6-8649-4813-aae5-2c2ddea2f292",ToolLinkText:"Learn more about To-Do",ToolScenarios:["Manage Tasks","Personal Productivity"]},</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E18" s="2" t="str">
         <f>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</f>
         <v>Learn more about Whiteboard</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G19&lt;&gt;"",",","")</f>
-        <v>{ToolName:"Whiteboard",ToolDescription:"Share an online work surface with others regardless of where they are. Place virtual sticky notes, type or draw in real time using a computer, phone or tablet. Download from the Microsoft Store.",ToolImage:Whiteboard,ToolLink:"https://products.office.com/en-us/microsoft-whiteboard/digital-whiteboard-app",ToolLinkText:"Learn more about Whiteboard",ToolCategories:["Collaborate with Colleagues"]},</v>
+        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G19&lt;&gt;"",",","")</f>
+        <v>{ToolName:"Whiteboard",ToolDescription:"Share an online work surface with others regardless of where they are. Place virtual sticky notes, type or draw in real time using a computer, phone or tablet. Download from the Microsoft Store.",ToolImage:Whiteboard,ToolLink:"https://products.office.com/en-us/microsoft-whiteboard/digital-whiteboard-app",ToolLinkText:"Learn more about Whiteboard",ToolScenarios:["Collaborate with Colleagues"]},</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E19" s="2" t="str">
         <f>"Learn more about " &amp;Table2[[#This Row],[ToolName]]</f>
         <v>Learn more about Yammer</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolCategories]]&amp;":["&amp;Table2[[#This Row],[ToolCategories]]&amp;"]}"&amp;IF(G20&lt;&gt;"",",","")</f>
-        <v>{ToolName:"Yammer",ToolDescription:"Connect to the right people, share information across teams, and organize around projects with coworkers or classmates.",ToolImage:Yammer,ToolLink:"https://support.office.com/yammer",ToolLinkText:"Learn more about Yammer",ToolCategories:["Communicate out to Employees","Chat"]}</v>
+        <f>"{"&amp;Table2[[#Headers],[ToolName]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolName]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolDescription]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolDescription]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolImage]]&amp;":"&amp;Table2[[#This Row],[ToolImage]]&amp;","&amp;Table2[[#Headers],[ToolLink]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLink]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolLinkText]]&amp;":"&amp;""""&amp;Table2[[#This Row],[ToolLinkText]]&amp;""""&amp;","&amp;Table2[[#Headers],[ToolScenarios]]&amp;":["&amp;Table2[[#This Row],[ToolScenarios]]&amp;"]}"&amp;IF(G20&lt;&gt;"",",","")</f>
+        <v>{ToolName:"Yammer",ToolDescription:"Connect to the right people, share information across teams, and organize around projects with coworkers or classmates.",ToolImage:Yammer,ToolLink:"https://support.office.com/yammer",ToolLinkText:"Learn more about Yammer",ToolScenarios:["Communicate out to Employees","Chat"]}</v>
       </c>
     </row>
   </sheetData>
@@ -2944,22 +2728,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -2968,17 +2752,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F3&lt;&gt;"",",","")</f>
-        <v>{Question:"Is this a personal automation?",QuestionID:"1",QuestionCapability:"personal workflows",QuestionToolTip:"",QuestionCategory:"Automate a Workflow"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F3&lt;&gt;"",",","")</f>
+        <v>{Question:"Is this a personal automation?",QuestionID:"1",QuestionCapability:"personal workflows",QuestionToolTip:"",QuestionScenario:"Automate a Workflow"},</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -2987,18 +2771,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F4&lt;&gt;"",",","")</f>
-        <v>{Question:"Need integration with non-O365 apps?",QuestionID:"2",QuestionCapability:"integration with non-O365 apps",QuestionToolTip:"",QuestionCategory:"Automate a Workflow"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F4&lt;&gt;"",",","")</f>
+        <v>{Question:"Need integration with non-O365 apps?",QuestionID:"2",QuestionCapability:"integration with non-O365 apps",QuestionToolTip:"",QuestionScenario:"Automate a Workflow"},</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -3007,17 +2791,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F5&lt;&gt;"",",","")</f>
-        <v>{Question:"Need it to be a standalone app?",QuestionID:"3",QuestionCapability:"standalone app",QuestionToolTip:"",QuestionCategory:"Automate a Workflow"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F5&lt;&gt;"",",","")</f>
+        <v>{Question:"Need it to be a standalone app?",QuestionID:"3",QuestionCapability:"standalone app",QuestionToolTip:"",QuestionScenario:"Automate a Workflow"},</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
@@ -3026,17 +2810,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F6&lt;&gt;"",",","")</f>
-        <v>{Question:"Keep the conversation after the app is closed?",QuestionID:"4",QuestionCapability:"persistent content",QuestionToolTip:"",QuestionCategory:"Chat"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F6&lt;&gt;"",",","")</f>
+        <v>{Question:"Keep the conversation after the app is closed?",QuestionID:"4",QuestionCapability:"persistent content",QuestionToolTip:"",QuestionScenario:"Chat"},</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -3045,17 +2829,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F7&lt;&gt;"",",","")</f>
-        <v>{Question:"Access chat across devices? (PC/mobile)",QuestionID:"5",QuestionCapability:"content across devices",QuestionToolTip:"",QuestionCategory:"Chat"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F7&lt;&gt;"",",","")</f>
+        <v>{Question:"Access chat across devices? (PC/mobile)",QuestionID:"5",QuestionCapability:"content across devices",QuestionToolTip:"",QuestionScenario:"Chat"},</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -3064,17 +2848,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F8&lt;&gt;"",",","")</f>
-        <v>{Question:"Need to collaborate on files?",QuestionID:"6",QuestionCapability:"file storage",QuestionToolTip:"",QuestionCategory:"Collaborate with Colleagues"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F8&lt;&gt;"",",","")</f>
+        <v>{Question:"Need to collaborate on files?",QuestionID:"6",QuestionCapability:"file storage",QuestionToolTip:"",QuestionScenario:"Collaborate with Colleagues"},</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
@@ -3083,20 +2867,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F9&lt;&gt;"",",","")</f>
-        <v>{Question:"Will any files be Highly Confidential?",QuestionID:"7",QuestionCapability:"confidential restricted and classified files",QuestionToolTip:"Super secret files are only allowed on certain platforms.",QuestionCategory:"Collaborate with Colleagues"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F9&lt;&gt;"",",","")</f>
+        <v>{Question:"Will any files be Highly Confidential?",QuestionID:"7",QuestionCapability:"confidential restricted and classified files",QuestionToolTip:"Super secret files are only allowed on certain platforms.",QuestionScenario:"Collaborate with Colleagues"},</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
@@ -3105,17 +2889,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F10&lt;&gt;"",",","")</f>
-        <v>{Question:"Need to collaborate with 3rd party partners?",QuestionID:"8",QuestionCapability:"3rd party collaboration",QuestionToolTip:"",QuestionCategory:"Collaborate with Colleagues"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F10&lt;&gt;"",",","")</f>
+        <v>{Question:"Need to collaborate with 3rd party partners?",QuestionID:"8",QuestionCapability:"3rd party collaboration",QuestionToolTip:"",QuestionScenario:"Collaborate with Colleagues"},</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -3124,17 +2908,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F11&lt;&gt;"",",","")</f>
-        <v>{Question:"Do you need a digital whiteboard?",QuestionID:"9",QuestionCapability:"whiteboard",QuestionToolTip:"",QuestionCategory:"Collaborate with Colleagues"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F11&lt;&gt;"",",","")</f>
+        <v>{Question:"Do you need a digital whiteboard?",QuestionID:"9",QuestionCapability:"whiteboard",QuestionToolTip:"",QuestionScenario:"Collaborate with Colleagues"},</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -3143,17 +2927,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F11" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F12&lt;&gt;"",",","")</f>
-        <v>{Question:"Need to collect input from others?",QuestionID:"10",QuestionCapability:"gather input",QuestionToolTip:"",QuestionCategory:"Communicate out to Employees"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F12&lt;&gt;"",",","")</f>
+        <v>{Question:"Need to collect input from others?",QuestionID:"10",QuestionCapability:"gather input",QuestionToolTip:"",QuestionScenario:"Communicate out to Employees"},</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -3162,17 +2946,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F13&lt;&gt;"",",","")</f>
-        <v>{Question:"Is this meant for everyone internally?",QuestionID:"11",QuestionCapability:"all have access",QuestionToolTip:"",QuestionCategory:"Communicate out to Employees"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F13&lt;&gt;"",",","")</f>
+        <v>{Question:"Is this meant for everyone internally?",QuestionID:"11",QuestionCapability:"all have access",QuestionToolTip:"",QuestionScenario:"Communicate out to Employees"},</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -3181,17 +2965,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F14&lt;&gt;"",",","")</f>
-        <v>{Question:"Targeted audience?",QuestionID:"12",QuestionCapability:"audience targeting",QuestionToolTip:"",QuestionCategory:"Communicate out to Employees"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F14&lt;&gt;"",",","")</f>
+        <v>{Question:"Targeted audience?",QuestionID:"12",QuestionCapability:"audience targeting",QuestionToolTip:"",QuestionScenario:"Communicate out to Employees"},</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
@@ -3200,17 +2984,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F14" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F15&lt;&gt;"",",","")</f>
-        <v>{Question:"Will you schedule the  meeting in advance?",QuestionID:"13",QuestionCapability:"meeting scheduling",QuestionToolTip:"",QuestionCategory:"Host a Meeting"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F15&lt;&gt;"",",","")</f>
+        <v>{Question:"Will you schedule the  meeting in advance?",QuestionID:"13",QuestionCapability:"meeting scheduling",QuestionToolTip:"",QuestionScenario:"Host a Meeting"},</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -3219,17 +3003,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F15" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F16&lt;&gt;"",",","")</f>
-        <v>{Question:"Need to record the meeting?",QuestionID:"14",QuestionCapability:"meeting recording",QuestionToolTip:"",QuestionCategory:"Host a Meeting"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F16&lt;&gt;"",",","")</f>
+        <v>{Question:"Need to record the meeting?",QuestionID:"14",QuestionCapability:"meeting recording",QuestionToolTip:"",QuestionScenario:"Host a Meeting"},</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -3238,17 +3022,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F16" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F17&lt;&gt;"",",","")</f>
-        <v>{Question:"250 or more attendees?",QuestionID:"15",QuestionCapability:"more than 250 participants",QuestionToolTip:"",QuestionCategory:"Host a Meeting"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F17&lt;&gt;"",",","")</f>
+        <v>{Question:"250 or more attendees?",QuestionID:"15",QuestionCapability:"more than 250 participants",QuestionToolTip:"",QuestionScenario:"Host a Meeting"},</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -3257,17 +3041,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F17" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F18&lt;&gt;"",",","")</f>
-        <v>{Question:"Participants using mobile devices?",QuestionID:"16",QuestionCapability:"mobile access",QuestionToolTip:"",QuestionCategory:"Host a Meeting"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F18&lt;&gt;"",",","")</f>
+        <v>{Question:"Participants using mobile devices?",QuestionID:"16",QuestionCapability:"mobile access",QuestionToolTip:"",QuestionScenario:"Host a Meeting"},</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -3276,17 +3060,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F18" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F19&lt;&gt;"",",","")</f>
-        <v>{Question:"Using a video conferencing room?",QuestionID:"17",QuestionCapability:"VC room enabled",QuestionToolTip:"",QuestionCategory:"Host a Meeting"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F19&lt;&gt;"",",","")</f>
+        <v>{Question:"Using a video conferencing room?",QuestionID:"17",QuestionCapability:"VC room enabled",QuestionToolTip:"",QuestionScenario:"Host a Meeting"},</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
@@ -3295,17 +3079,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F19" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F20&lt;&gt;"",",","")</f>
-        <v>{Question:"Using Real Time Media Protocol (RTMP) or encoders?",QuestionID:"18",QuestionCapability:"RTMP",QuestionToolTip:"",QuestionCategory:"Host a Meeting"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F20&lt;&gt;"",",","")</f>
+        <v>{Question:"Using Real Time Media Protocol (RTMP) or encoders?",QuestionID:"18",QuestionCapability:"RTMP",QuestionToolTip:"",QuestionScenario:"Host a Meeting"},</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -3314,17 +3098,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F21&lt;&gt;"",",","")</f>
-        <v>{Question:"Will you be assigning tasks to others?",QuestionID:"19",QuestionCapability:"assign tasks",QuestionToolTip:"",QuestionCategory:"Manage Tasks"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F21&lt;&gt;"",",","")</f>
+        <v>{Question:"Will you be assigning tasks to others?",QuestionID:"19",QuestionCapability:"assign tasks",QuestionToolTip:"",QuestionScenario:"Manage Tasks"},</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -3333,17 +3117,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F22&lt;&gt;"",",","")</f>
-        <v>{Question:"Do 3rd parties need access?",QuestionID:"20",QuestionCapability:"3rd party task tracking",QuestionToolTip:"",QuestionCategory:"Manage Tasks"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F22&lt;&gt;"",",","")</f>
+        <v>{Question:"Do 3rd parties need access?",QuestionID:"20",QuestionCapability:"3rd party task tracking",QuestionToolTip:"",QuestionScenario:"Manage Tasks"},</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -3352,17 +3136,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F22" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F23&lt;&gt;"",",","")</f>
-        <v>{Question:"Need to track tasks?",QuestionID:"21",QuestionCapability:"task tracking",QuestionToolTip:"",QuestionCategory:"Personal Productivity"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F23&lt;&gt;"",",","")</f>
+        <v>{Question:"Need to track tasks?",QuestionID:"21",QuestionCapability:"task tracking",QuestionToolTip:"",QuestionScenario:"Personal Productivity"},</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -3371,17 +3155,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F24&lt;&gt;"",",","")</f>
-        <v>{Question:"Want to capture detailed notes?",QuestionID:"22",QuestionCapability:"notes capture",QuestionToolTip:"",QuestionCategory:"Personal Productivity"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F24&lt;&gt;"",",","")</f>
+        <v>{Question:"Want to capture detailed notes?",QuestionID:"22",QuestionCapability:"notes capture",QuestionToolTip:"",QuestionScenario:"Personal Productivity"},</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
@@ -3390,17 +3174,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F25&lt;&gt;"",",","")</f>
-        <v>{Question:"Like to see data about your  personal productivity habits?",QuestionID:"23",QuestionCapability:"track productivity habits",QuestionToolTip:"",QuestionCategory:"Personal Productivity"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F25&lt;&gt;"",",","")</f>
+        <v>{Question:"Like to see data about your  personal productivity habits?",QuestionID:"23",QuestionCapability:"track productivity habits",QuestionToolTip:"",QuestionScenario:"Personal Productivity"},</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -3409,17 +3193,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F25" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F26&lt;&gt;"",",","")</f>
-        <v>{Question:"Do you need to store your work files?",QuestionID:"24",QuestionCapability:"your work files",QuestionToolTip:"",QuestionCategory:"Personal Productivity"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F26&lt;&gt;"",",","")</f>
+        <v>{Question:"Do you need to store your work files?",QuestionID:"24",QuestionCapability:"your work files",QuestionToolTip:"",QuestionScenario:"Personal Productivity"},</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
@@ -3428,17 +3212,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F26" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F27&lt;&gt;"",",","")</f>
-        <v>{Question:"Need to create interactive data visualizations?",QuestionID:"25",QuestionCapability:"interactive data",QuestionToolTip:"",QuestionCategory:"Reports and Data Visualization"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F27&lt;&gt;"",",","")</f>
+        <v>{Question:"Need to create interactive data visualizations?",QuestionID:"25",QuestionCapability:"interactive data",QuestionToolTip:"",QuestionScenario:"Reports and Data Visualization"},</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -3447,17 +3231,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F28&lt;&gt;"",",","")</f>
-        <v>{Question:"Want to collect data from users?",QuestionID:"26",QuestionCapability:"data collection",QuestionToolTip:"",QuestionCategory:"Reports and Data Visualization"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F28&lt;&gt;"",",","")</f>
+        <v>{Question:"Want to collect data from users?",QuestionID:"26",QuestionCapability:"data collection",QuestionToolTip:"",QuestionScenario:"Reports and Data Visualization"},</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -3466,17 +3250,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F28" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F29&lt;&gt;"",",","")</f>
-        <v>{Question:"Do you need live streaming?",QuestionID:"27",QuestionCapability:"live streaming",QuestionToolTip:"",QuestionCategory:"Share a Video"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F29&lt;&gt;"",",","")</f>
+        <v>{Question:"Do you need live streaming?",QuestionID:"27",QuestionCapability:"live streaming",QuestionToolTip:"",QuestionScenario:"Share a Video"},</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -3485,17 +3269,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F30&lt;&gt;"",",","")</f>
-        <v>{Question:"Do 3rd parties need access?",QuestionID:"28",QuestionCapability:"3rd party video sharing",QuestionToolTip:"",QuestionCategory:"Share a Video"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F30&lt;&gt;"",",","")</f>
+        <v>{Question:"Do 3rd parties need access?",QuestionID:"28",QuestionCapability:"3rd party video sharing",QuestionToolTip:"",QuestionScenario:"Share a Video"},</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -3504,17 +3288,17 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F31&lt;&gt;"",",","")</f>
-        <v>{Question:"View videos on mobile?",QuestionID:"29",QuestionCapability:"mobile viewing",QuestionToolTip:"",QuestionCategory:"Share a Video"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F31&lt;&gt;"",",","")</f>
+        <v>{Question:"View videos on mobile?",QuestionID:"29",QuestionCapability:"mobile viewing",QuestionToolTip:"",QuestionScenario:"Share a Video"},</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -3523,17 +3307,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F31" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F32&lt;&gt;"",",","")</f>
-        <v>{Question:"Need Video on-demand?",QuestionID:"30",QuestionCapability:"video on demand",QuestionToolTip:"",QuestionCategory:"Share a Video"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F32&lt;&gt;"",",","")</f>
+        <v>{Question:"Need Video on-demand?",QuestionID:"30",QuestionCapability:"video on demand",QuestionToolTip:"",QuestionScenario:"Share a Video"},</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -3542,17 +3326,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F32" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F33&lt;&gt;"",",","")</f>
-        <v>{Question:"Need interactive polls in the meeting?",QuestionID:"31",QuestionCapability:"interactive polls",QuestionToolTip:"",QuestionCategory:"Share a Video"},</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F33&lt;&gt;"",",","")</f>
+        <v>{Question:"Need interactive polls in the meeting?",QuestionID:"31",QuestionCapability:"interactive polls",QuestionToolTip:"",QuestionScenario:"Share a Video"},</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -3561,17 +3345,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F33" s="2" t="str">
-        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCategory]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCategory]]&amp;""""&amp;"}"&amp;IF(F34&lt;&gt;"",",","")</f>
-        <v>{Question:"Need rich formatting?",QuestionID:"32",QuestionCapability:"rich text formatting",QuestionToolTip:"",QuestionCategory:"Chat"}</v>
+        <f>"{"&amp;Table4[[#Headers],[Question]]&amp;":"&amp;""""&amp;Table4[[#This Row],[Question]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionID]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionID]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionCapability]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionCapability]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionToolTip]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionToolTip]]&amp;""""&amp;","&amp;Table4[[#Headers],[QuestionScenario]]&amp;":"&amp;""""&amp;Table4[[#This Row],[QuestionScenario]]&amp;""""&amp;"}"&amp;IF(F34&lt;&gt;"",",","")</f>
+        <v>{Question:"Need rich formatting?",QuestionID:"32",QuestionCapability:"rich text formatting",QuestionToolTip:"",QuestionScenario:"Chat"}</v>
       </c>
     </row>
   </sheetData>
@@ -3610,30 +3394,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3649,10 +3433,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3668,10 +3452,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3687,10 +3471,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3706,10 +3490,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3725,10 +3509,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3744,10 +3528,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3763,10 +3547,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3782,10 +3566,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3801,10 +3585,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -3820,10 +3604,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -3839,10 +3623,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -3858,10 +3642,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3877,10 +3661,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3896,10 +3680,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3915,10 +3699,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3934,10 +3718,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3953,10 +3737,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3972,10 +3756,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3991,16 +3775,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E21" s="11" t="str">
         <f>"{"&amp;Table5[[#Headers],[CapabilityToolName]]&amp;":"&amp;""""&amp;Table5[[#This Row],[CapabilityToolName]]&amp;""""&amp;","&amp;Table5[[#Headers],[ToolCapability]]&amp;":"&amp;""""&amp;Table5[[#This Row],[ToolCapability]]&amp;""""&amp;","&amp;Table5[[#Headers],[ToolCapabilityWeight]]&amp;":"&amp;Table5[[#This Row],[ToolCapabilityWeight]]&amp;","&amp;Table5[[#Headers],[ToolCapabilityTooltip]]&amp;":"&amp;""""&amp;Table5[[#This Row],[ToolCapabilityTooltip]]&amp;""""&amp;"}"&amp;IF(E22&lt;&gt;"",",","")</f>
@@ -4013,10 +3797,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4032,10 +3816,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4051,10 +3835,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4070,10 +3854,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -4089,16 +3873,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>165</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>172</v>
       </c>
       <c r="E26" s="11" t="str">
         <f>"{"&amp;Table5[[#Headers],[CapabilityToolName]]&amp;":"&amp;""""&amp;Table5[[#This Row],[CapabilityToolName]]&amp;""""&amp;","&amp;Table5[[#Headers],[ToolCapability]]&amp;":"&amp;""""&amp;Table5[[#This Row],[ToolCapability]]&amp;""""&amp;","&amp;Table5[[#Headers],[ToolCapabilityWeight]]&amp;":"&amp;Table5[[#This Row],[ToolCapabilityWeight]]&amp;","&amp;Table5[[#Headers],[ToolCapabilityTooltip]]&amp;":"&amp;""""&amp;Table5[[#This Row],[ToolCapabilityTooltip]]&amp;""""&amp;"}"&amp;IF(E27&lt;&gt;"",",","")</f>
@@ -4111,10 +3895,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -4130,10 +3914,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -4149,10 +3933,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -4168,10 +3952,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -4187,10 +3971,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -4206,10 +3990,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -4225,10 +4009,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -4244,10 +4028,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -4263,10 +4047,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -4282,10 +4066,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4301,10 +4085,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4320,10 +4104,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4339,10 +4123,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4358,10 +4142,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4377,10 +4161,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -4396,10 +4180,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -4415,10 +4199,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4434,10 +4218,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4453,10 +4237,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4472,10 +4256,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4491,10 +4275,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -4510,10 +4294,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -4557,98 +4341,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23F634E-6724-4506-BB80-75F20F8DB8FB}">
   <dimension ref="A3:AQ21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.9296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.9296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.86328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="30.1328125" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="33.265625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.06640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.1328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:43" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4"/>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
       <c r="M4"/>
-      <c r="N4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4"/>
-      <c r="P4" t="s">
-        <v>12</v>
-      </c>
+      <c r="N4"/>
+      <c r="O4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
-      <c r="T4" t="s">
-        <v>163</v>
-      </c>
-      <c r="U4"/>
-      <c r="V4" t="s">
-        <v>180</v>
-      </c>
-      <c r="W4"/>
+      <c r="T4"/>
+      <c r="U4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4"/>
+      <c r="W4" t="s">
+        <v>8</v>
+      </c>
       <c r="X4"/>
       <c r="Y4"/>
-      <c r="Z4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA4"/>
+      <c r="Z4"/>
+      <c r="AA4" t="s">
+        <v>156</v>
+      </c>
       <c r="AB4"/>
-      <c r="AC4"/>
+      <c r="AC4" t="s">
+        <v>169</v>
+      </c>
       <c r="AD4"/>
-      <c r="AE4" t="s">
-        <v>182</v>
-      </c>
+      <c r="AE4"/>
       <c r="AF4"/>
       <c r="AG4"/>
       <c r="AH4"/>
@@ -4664,108 +4448,117 @@
     </row>
     <row r="5" spans="1:43" s="19" customFormat="1" ht="187.5" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="I5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="N5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="19" t="s">
+      <c r="X5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF5" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y5" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB5" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD5" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE5" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF5" s="14" t="s">
-        <v>73</v>
-      </c>
       <c r="AG5" s="14" t="s">
-        <v>170</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -4779,19 +4572,19 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="11">
-        <v>1</v>
-      </c>
-      <c r="O6" s="11">
-        <v>1</v>
-      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
+      <c r="U6" s="11">
+        <v>1</v>
+      </c>
+      <c r="V6" s="11">
+        <v>1</v>
+      </c>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -4806,7 +4599,7 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -4847,7 +4640,7 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -4867,16 +4660,16 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
-      <c r="T8" s="11">
-        <v>1</v>
-      </c>
+      <c r="T8" s="11"/>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
+      <c r="AA8" s="11">
+        <v>1</v>
+      </c>
       <c r="AB8" s="11"/>
       <c r="AC8" s="11"/>
       <c r="AD8" s="11"/>
@@ -4886,7 +4679,7 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -4894,9 +4687,13 @@
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
       <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="11">
+        <v>1</v>
+      </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -4905,20 +4702,16 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
-      <c r="S9" s="11">
-        <v>3</v>
-      </c>
+      <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="11">
-        <v>1</v>
-      </c>
+      <c r="V9" s="11"/>
       <c r="W9" s="11"/>
-      <c r="X9" s="11">
-        <v>1</v>
-      </c>
+      <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
+      <c r="Z9" s="11">
+        <v>3</v>
+      </c>
       <c r="AA9" s="11"/>
       <c r="AB9" s="11"/>
       <c r="AC9" s="11"/>
@@ -4929,7 +4722,7 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -4940,25 +4733,25 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="11">
+        <v>1</v>
+      </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="11">
-        <v>1</v>
-      </c>
+      <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
+      <c r="W10" s="11">
+        <v>1</v>
+      </c>
       <c r="X10" s="11"/>
-      <c r="Y10" s="11">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="11"/>
       <c r="Z10" s="11"/>
       <c r="AA10" s="11"/>
       <c r="AB10" s="11"/>
@@ -4970,39 +4763,39 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="L11" s="11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11">
+        <v>1</v>
+      </c>
       <c r="N11" s="11"/>
-      <c r="O11" s="11">
-        <v>2</v>
-      </c>
+      <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="11">
-        <v>1</v>
-      </c>
+      <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
+      <c r="V11" s="11">
+        <v>2</v>
+      </c>
       <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
+      <c r="X11" s="11">
+        <v>1</v>
+      </c>
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
       <c r="AA11" s="11"/>
@@ -5015,7 +4808,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -5029,23 +4822,23 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="11">
-        <v>1</v>
-      </c>
-      <c r="O12" s="11">
-        <v>3</v>
-      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="11">
-        <v>2</v>
-      </c>
+      <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
+      <c r="U12" s="11">
+        <v>1</v>
+      </c>
+      <c r="V12" s="11">
+        <v>3</v>
+      </c>
       <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
+      <c r="X12" s="11">
+        <v>2</v>
+      </c>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
@@ -5058,7 +4851,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -5066,9 +4859,15 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1</v>
+      </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
@@ -5080,15 +4879,9 @@
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
-      <c r="V13" s="11">
-        <v>1</v>
-      </c>
-      <c r="W13" s="11">
-        <v>1</v>
-      </c>
-      <c r="X13" s="11">
-        <v>1</v>
-      </c>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
       <c r="AA13" s="11"/>
@@ -5101,115 +4894,115 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="11">
-        <v>1</v>
-      </c>
+      <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="11">
-        <v>1</v>
-      </c>
-      <c r="L14" s="11">
-        <v>1</v>
-      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="N14" s="11">
+        <v>1</v>
+      </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
+      <c r="R14" s="11">
+        <v>1</v>
+      </c>
+      <c r="S14" s="11">
+        <v>1</v>
+      </c>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
-      <c r="Z14" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="11">
-        <v>1</v>
-      </c>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
       <c r="AC14" s="11">
         <v>1</v>
       </c>
       <c r="AD14" s="11">
         <v>1</v>
       </c>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
+      <c r="AE14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
       <c r="H15" s="11">
         <v>1</v>
       </c>
-      <c r="I15" s="11">
-        <v>1</v>
-      </c>
+      <c r="I15" s="11"/>
       <c r="J15" s="11">
         <v>1</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
-      <c r="M15" s="11">
-        <v>1</v>
-      </c>
+      <c r="M15" s="11"/>
       <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
+      <c r="O15" s="11">
+        <v>1</v>
+      </c>
+      <c r="P15" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>1</v>
+      </c>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
+      <c r="T15" s="11">
+        <v>1</v>
+      </c>
       <c r="U15" s="11"/>
-      <c r="V15" s="11">
-        <v>1</v>
-      </c>
+      <c r="V15" s="11"/>
       <c r="W15" s="11"/>
-      <c r="X15" s="11">
-        <v>1</v>
-      </c>
+      <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
       <c r="AD15" s="11"/>
-      <c r="AE15" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>1</v>
-      </c>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -5226,16 +5019,16 @@
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="11">
-        <v>3</v>
-      </c>
+      <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
+      <c r="X16" s="11">
+        <v>3</v>
+      </c>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
@@ -5248,7 +5041,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
@@ -5289,7 +5082,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -5310,16 +5103,16 @@
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="11">
-        <v>1</v>
-      </c>
+      <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
+      <c r="AB18" s="11">
+        <v>1</v>
+      </c>
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
@@ -5328,7 +5121,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -5336,17 +5129,21 @@
       <c r="E19" s="11">
         <v>1</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11">
-        <v>1</v>
-      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="L19" s="11">
+        <v>1</v>
+      </c>
       <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
+      <c r="N19" s="11">
+        <v>1</v>
+      </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
@@ -5363,17 +5160,13 @@
       <c r="AB19" s="11"/>
       <c r="AC19" s="11"/>
       <c r="AD19" s="11"/>
-      <c r="AE19" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="11">
-        <v>1</v>
-      </c>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
       <c r="AG19" s="11"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -5384,7 +5177,9 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
+      <c r="K20" s="11">
+        <v>2</v>
+      </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -5398,9 +5193,7 @@
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="11">
-        <v>2</v>
-      </c>
+      <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
@@ -5412,7 +5205,7 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -5430,16 +5223,16 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="11">
-        <v>1</v>
-      </c>
+      <c r="R21" s="11"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
+      <c r="Y21" s="11">
+        <v>1</v>
+      </c>
       <c r="Z21" s="11"/>
       <c r="AA21" s="11"/>
       <c r="AB21" s="11"/>
